--- a/predict.xlsx
+++ b/predict.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t xml:space="preserve">batch</t>
   </si>
@@ -31,39 +31,51 @@
     <t xml:space="preserve">kvp</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derr</t>
-  </si>
-  <si>
     <t xml:space="preserve">ctdi</t>
   </si>
   <si>
-    <t xml:space="preserve">l0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filt</t>
+    <t xml:space="preserve">lcoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lscan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter</t>
   </si>
   <si>
     <t xml:space="preserve">angle</t>
   </si>
   <si>
-    <t xml:space="preserve">p</t>
+    <t xml:space="preserve">pitch</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">ksize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kcoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">predicted</t>
+  </si>
+  <si>
     <t xml:space="preserve">anthrotest</t>
   </si>
   <si>
@@ -83,21 +95,26 @@
   </si>
   <si>
     <t xml:space="preserve">hel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">impacttest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -116,6 +133,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,12 +150,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -159,17 +191,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -189,200 +217,375 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1.21394886461332</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0.944394897651615</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.74386280475197</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2.15390817126776</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>37.4780021800591</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>15.0705365836506</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0.0292555749122948</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G2" s="2" t="n">
+      <c r="E3" s="0" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="G3" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="H3" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="I3" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>17</v>
+      <c r="J3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1.21394886461332</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.944394897651615</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.74386280475197</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2.15390817126776</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>31.0593558296812</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>13.126988382842</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.0528451161892032</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="E4" s="0" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="G4" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="H4" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="I4" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>17</v>
+      <c r="J4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>1.21394886461332</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.944394897651615</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.74386280475197</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2.96162373549318</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>43.9504962347188</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>14.4079871145199</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0.0387595006560664</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="I4" s="2" t="n">
+      <c r="E5" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="I5" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="J5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>1.375</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="M5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1.21394886461332</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.886405678441822</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.690424786596647</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2.58007488117499</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>13.932404358345</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>1.52980559577434</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.475918168552579</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.877431029901123</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1.21010511710594</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>49.0092572427905</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>